--- a/data/trans_orig/P33_1_R-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P33_1_R-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>384441</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>366206</v>
+        <v>364828</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>399929</v>
+        <v>399926</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.823634227264169</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7845667150179917</v>
+        <v>0.7816142329650644</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8568157897178859</v>
+        <v>0.8568093676539142</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>243</v>
@@ -765,19 +765,19 @@
         <v>249918</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>234354</v>
+        <v>235595</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>263123</v>
+        <v>262379</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.814915995528579</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7641632616789477</v>
+        <v>0.768210403299581</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8579721027264239</v>
+        <v>0.8555455887798713</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>613</v>
@@ -786,19 +786,19 @@
         <v>634360</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>609730</v>
+        <v>611415</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>655753</v>
+        <v>654038</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8201773316370765</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7883319712036078</v>
+        <v>0.7905105456746347</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8478367209562618</v>
+        <v>0.8456186763815354</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>82321</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>66833</v>
+        <v>66836</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>100556</v>
+        <v>101934</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.176365772735831</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1431842102821141</v>
+        <v>0.1431906323460858</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2154332849820083</v>
+        <v>0.2183857670349356</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>55</v>
@@ -836,19 +836,19 @@
         <v>56762</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>43557</v>
+        <v>44301</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>72326</v>
+        <v>71085</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.185084004471421</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1420278972735761</v>
+        <v>0.144454411220129</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2358367383210523</v>
+        <v>0.231789596700419</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>133</v>
@@ -857,19 +857,19 @@
         <v>139083</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>117690</v>
+        <v>119405</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>163713</v>
+        <v>162028</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1798226683629235</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1521632790437382</v>
+        <v>0.1543813236184647</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2116680287963925</v>
+        <v>0.2094894543253654</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>314078</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>297875</v>
+        <v>300574</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>326839</v>
+        <v>328151</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.8627986258269491</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.818288624588259</v>
+        <v>0.8257024492420527</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8978544883958471</v>
+        <v>0.9014597190884048</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>297</v>
@@ -982,19 +982,19 @@
         <v>304636</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>288936</v>
+        <v>289754</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>319837</v>
+        <v>318638</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.8212792617781766</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7789519151265788</v>
+        <v>0.7811575199092653</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8622587655875421</v>
+        <v>0.8590277292439888</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>600</v>
@@ -1003,19 +1003,19 @@
         <v>618714</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>597655</v>
+        <v>594325</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>636754</v>
+        <v>635786</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.8418438490614252</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.813190885673585</v>
+        <v>0.8086599874109408</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8663900527256023</v>
+        <v>0.865072434662341</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>49944</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>37183</v>
+        <v>35871</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>66147</v>
+        <v>63448</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1372013741730509</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1021455116041529</v>
+        <v>0.09854028091159524</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1817113754117409</v>
+        <v>0.1742975507579473</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>65</v>
@@ -1053,19 +1053,19 @@
         <v>66293</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>51092</v>
+        <v>52291</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>81993</v>
+        <v>81175</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1787207382218234</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1377412344124579</v>
+        <v>0.1409722707560112</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2210480848734217</v>
+        <v>0.2188424800907348</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>109</v>
@@ -1074,19 +1074,19 @@
         <v>116237</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>98197</v>
+        <v>99165</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>137296</v>
+        <v>140626</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1581561509385749</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1336099472743971</v>
+        <v>0.1349275653376591</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1868091143264148</v>
+        <v>0.1913400125890592</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>433720</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>414415</v>
+        <v>414866</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>452254</v>
+        <v>453425</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8079515193817334</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7719887796276046</v>
+        <v>0.7728285607142744</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8424767969805208</v>
+        <v>0.8446586123019888</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>120</v>
@@ -1199,19 +1199,19 @@
         <v>121809</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>108992</v>
+        <v>109217</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>132291</v>
+        <v>132860</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.740205557927481</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6623223720217163</v>
+        <v>0.6636886294826292</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8039049042395081</v>
+        <v>0.807363198086993</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>544</v>
@@ -1220,19 +1220,19 @@
         <v>555529</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>530421</v>
+        <v>535614</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>575743</v>
+        <v>578253</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7920565716039076</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.756257958153993</v>
+        <v>0.763661431677903</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8208756909304181</v>
+        <v>0.8244545538616754</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>103095</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>84561</v>
+        <v>83390</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>122400</v>
+        <v>121949</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1920484806182667</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1575232030194793</v>
+        <v>0.1553413876980111</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2280112203723954</v>
+        <v>0.2271714392857257</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>41</v>
@@ -1270,19 +1270,19 @@
         <v>42752</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>32270</v>
+        <v>31701</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>55569</v>
+        <v>55344</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2597944420725191</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1960950957604919</v>
+        <v>0.1926368019130069</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3376776279782837</v>
+        <v>0.3363113705173707</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>143</v>
@@ -1291,19 +1291,19 @@
         <v>145847</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>125633</v>
+        <v>123123</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>170955</v>
+        <v>165762</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2079434283960923</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1791243090695819</v>
+        <v>0.1755454461383246</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.243742041846007</v>
+        <v>0.236338568322097</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>948161</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>918597</v>
+        <v>917241</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>974366</v>
+        <v>976588</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.779426511420281</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.7551242632886114</v>
+        <v>0.7540095833212132</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.8009685855215896</v>
+        <v>0.8027950200826232</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>539</v>
@@ -1416,19 +1416,19 @@
         <v>556430</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>532241</v>
+        <v>533123</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>577078</v>
+        <v>577450</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.7868377106260649</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.7526326385399505</v>
+        <v>0.7538798408206572</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.8160355401674523</v>
+        <v>0.8165616653765813</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1474</v>
@@ -1437,19 +1437,19 @@
         <v>1504591</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1469802</v>
+        <v>1464348</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1538344</v>
+        <v>1535663</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.782151008291303</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.7640659965431836</v>
+        <v>0.7612307644780423</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7996972085325037</v>
+        <v>0.7983035789691032</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>268324</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>242119</v>
+        <v>239897</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>297888</v>
+        <v>299244</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2205734885797191</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1990314144784104</v>
+        <v>0.1972049799173769</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2448757367113886</v>
+        <v>0.2459904166787869</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>148</v>
@@ -1487,19 +1487,19 @@
         <v>150743</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>130095</v>
+        <v>129723</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>174932</v>
+        <v>174050</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2131622893739351</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1839644598325478</v>
+        <v>0.1834383346234189</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2473673614600496</v>
+        <v>0.2461201591793429</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>415</v>
@@ -1508,19 +1508,19 @@
         <v>419067</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>385314</v>
+        <v>387995</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>453856</v>
+        <v>459310</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.217848991708697</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2003027914674963</v>
+        <v>0.2016964210308968</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2359340034568164</v>
+        <v>0.2387692355219575</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>273174</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>257482</v>
+        <v>257761</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>287153</v>
+        <v>287375</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7906675235945303</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7452480544350262</v>
+        <v>0.7460575478330889</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8311272263660605</v>
+        <v>0.8317689457179067</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>408</v>
@@ -1633,19 +1633,19 @@
         <v>427650</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>403363</v>
+        <v>406007</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>447260</v>
+        <v>448630</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7519102474585719</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7092064357952618</v>
+        <v>0.7138551759338828</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7863891530011946</v>
+        <v>0.788796759756433</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>670</v>
@@ -1654,19 +1654,19 @@
         <v>700825</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>676047</v>
+        <v>672926</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>728331</v>
+        <v>724291</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.7665567521820023</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7394553627026553</v>
+        <v>0.7360416947027992</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7966429580171334</v>
+        <v>0.792224006424587</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>72324</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>58345</v>
+        <v>58123</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>88016</v>
+        <v>87737</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2093324764054697</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1688727736339393</v>
+        <v>0.1682310542820933</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2547519455649738</v>
+        <v>0.2539424521669111</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>131</v>
@@ -1704,19 +1704,19 @@
         <v>141102</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>121492</v>
+        <v>120122</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>165389</v>
+        <v>162745</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2480897525414281</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2136108469988055</v>
+        <v>0.211203240243567</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2907935642047383</v>
+        <v>0.2861448240661172</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>204</v>
@@ -1725,19 +1725,19 @@
         <v>213425</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>185919</v>
+        <v>189959</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>238203</v>
+        <v>241324</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2334432478179978</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2033570419828662</v>
+        <v>0.207775993575413</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2605446372973445</v>
+        <v>0.2639583052972008</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>271298</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>260755</v>
+        <v>260636</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>279022</v>
+        <v>279818</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.9238236342754008</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.8879223788779242</v>
+        <v>0.8875155112131022</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.9501231990899093</v>
+        <v>0.9528349040753856</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>888</v>
@@ -1850,19 +1850,19 @@
         <v>888621</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>857090</v>
+        <v>856407</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>921211</v>
+        <v>919992</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.717804741610695</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.6923347394042676</v>
+        <v>0.6917836803595038</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.744130018676342</v>
+        <v>0.7431454997984229</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1167</v>
@@ -1871,19 +1871,19 @@
         <v>1159919</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1126272</v>
+        <v>1126065</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>1191789</v>
+        <v>1190023</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.757305822703329</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.7353375822392724</v>
+        <v>0.7352028966406637</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.7781132875244806</v>
+        <v>0.7769603590716611</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>22371</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>14647</v>
+        <v>13851</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>32914</v>
+        <v>33033</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.07617636572459922</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.04987680091009065</v>
+        <v>0.04716509592461435</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1120776211220756</v>
+        <v>0.1124844887868977</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>339</v>
@@ -1921,19 +1921,19 @@
         <v>349349</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>316759</v>
+        <v>317978</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>380880</v>
+        <v>381563</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.282195258389305</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.255869981323659</v>
+        <v>0.2568545002015771</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3076652605957328</v>
+        <v>0.3082163196404965</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>361</v>
@@ -1942,19 +1942,19 @@
         <v>371720</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>339850</v>
+        <v>341616</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>405367</v>
+        <v>405574</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.242694177296671</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2218867124755196</v>
+        <v>0.223039640928339</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2646624177607276</v>
+        <v>0.2647971033593363</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>2624873</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2578125</v>
+        <v>2581108</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>2667372</v>
+        <v>2671471</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.814355571668125</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7998520281008531</v>
+        <v>0.8007775485194508</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8275406910295158</v>
+        <v>0.8288122332686209</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2495</v>
@@ -2067,19 +2067,19 @@
         <v>2549065</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2502884</v>
+        <v>2498836</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>2603337</v>
+        <v>2595434</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7595399068530949</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7457792133784279</v>
+        <v>0.7445732651672021</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7757112658939272</v>
+        <v>0.7733563498708368</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>5068</v>
@@ -2088,19 +2088,19 @@
         <v>5173939</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>5104311</v>
+        <v>5097815</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>5243176</v>
+        <v>5230428</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7863944729839251</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7758117443051582</v>
+        <v>0.7748243212729595</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7969179812424174</v>
+        <v>0.7949803236707743</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>598379</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>555880</v>
+        <v>551781</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>645127</v>
+        <v>642144</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.185644428331875</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1724593089704836</v>
+        <v>0.171187766731379</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2001479718991469</v>
+        <v>0.1992224514805492</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>779</v>
@@ -2138,19 +2138,19 @@
         <v>807000</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>752728</v>
+        <v>760631</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>853181</v>
+        <v>857229</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2404600931469051</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2242887341060728</v>
+        <v>0.2266436501291632</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2542207866215721</v>
+        <v>0.255426734832798</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1365</v>
@@ -2159,19 +2159,19 @@
         <v>1405378</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1336141</v>
+        <v>1348889</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1475006</v>
+        <v>1481502</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2136055270160749</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2030820187575826</v>
+        <v>0.2050196763292257</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2241882556948417</v>
+        <v>0.2251756787270401</v>
       </c>
     </row>
     <row r="24">
@@ -2505,19 +2505,19 @@
         <v>333008</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>311804</v>
+        <v>313255</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>350250</v>
+        <v>351855</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7616652915544453</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7131666506004779</v>
+        <v>0.7164844784986537</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8011011883768825</v>
+        <v>0.8047714525257563</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>227</v>
@@ -2526,19 +2526,19 @@
         <v>250930</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>235289</v>
+        <v>232966</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>264656</v>
+        <v>264791</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7979877388869602</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7482463590642257</v>
+        <v>0.7408589546227267</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.841636030018831</v>
+        <v>0.8420654719191516</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>537</v>
@@ -2547,19 +2547,19 @@
         <v>583939</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>556014</v>
+        <v>561012</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>606288</v>
+        <v>607022</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7768605548383444</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7397097506490781</v>
+        <v>0.7463586547466722</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8065927651355771</v>
+        <v>0.8075695585008301</v>
       </c>
     </row>
     <row r="5">
@@ -2576,19 +2576,19 @@
         <v>104203</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>86961</v>
+        <v>85356</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>125407</v>
+        <v>123956</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2383347084455547</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1988988116231174</v>
+        <v>0.195228547474244</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.286833349399522</v>
+        <v>0.2835155215013463</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>56</v>
@@ -2597,19 +2597,19 @@
         <v>63524</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>49798</v>
+        <v>49663</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>79165</v>
+        <v>81488</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2020122611130398</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1583639699811689</v>
+        <v>0.1579345280808485</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2517536409357744</v>
+        <v>0.2591410453772736</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>150</v>
@@ -2618,19 +2618,19 @@
         <v>167726</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>145377</v>
+        <v>144643</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>195651</v>
+        <v>190653</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2231394451616557</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.193407234864423</v>
+        <v>0.1924304414991697</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.260290249350922</v>
+        <v>0.2536413452533278</v>
       </c>
     </row>
     <row r="6">
@@ -2722,19 +2722,19 @@
         <v>311686</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>291632</v>
+        <v>293165</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>331167</v>
+        <v>330003</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.7459056157861161</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6979157019515437</v>
+        <v>0.7015823581293291</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.7925279667311845</v>
+        <v>0.7897406856944362</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>220</v>
@@ -2743,19 +2743,19 @@
         <v>243297</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>224659</v>
+        <v>224738</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>259593</v>
+        <v>261274</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.7197897638752572</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6646490506613875</v>
+        <v>0.6648822319191832</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7680027319849208</v>
+        <v>0.7729738078237105</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>499</v>
@@ -2764,19 +2764,19 @@
         <v>554982</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>526494</v>
+        <v>530911</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>577827</v>
+        <v>583760</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.7342271342869789</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.6965374140041891</v>
+        <v>0.7023811457716292</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.764449954662434</v>
+        <v>0.7722992240972008</v>
       </c>
     </row>
     <row r="8">
@@ -2793,19 +2793,19 @@
         <v>106176</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>86695</v>
+        <v>87859</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>126230</v>
+        <v>124697</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2540943842138839</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2074720332688155</v>
+        <v>0.2102593143055634</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3020842980484565</v>
+        <v>0.2984176418706707</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>85</v>
@@ -2814,19 +2814,19 @@
         <v>94714</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>78418</v>
+        <v>76737</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>113352</v>
+        <v>113273</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2802102361247428</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2319972680150792</v>
+        <v>0.2270261921762894</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3353509493386125</v>
+        <v>0.3351177680808166</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>180</v>
@@ -2835,19 +2835,19 @@
         <v>200891</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>178046</v>
+        <v>172113</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>229379</v>
+        <v>224962</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.265772865713021</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2355500453375659</v>
+        <v>0.2277007759027992</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3034625859958108</v>
+        <v>0.2976188542283708</v>
       </c>
     </row>
     <row r="9">
@@ -2939,19 +2939,19 @@
         <v>457649</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>434125</v>
+        <v>436497</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>479039</v>
+        <v>479898</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7294800050064104</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6919832618953531</v>
+        <v>0.6957646984458375</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7635753614520493</v>
+        <v>0.764944374793158</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>170</v>
@@ -2960,19 +2960,19 @@
         <v>182049</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>168030</v>
+        <v>165966</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>194943</v>
+        <v>196308</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7089715369900624</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6543756878750485</v>
+        <v>0.6463363833314237</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7591864261556726</v>
+        <v>0.7645028578828119</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>599</v>
@@ -2981,19 +2981,19 @@
         <v>639698</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>611965</v>
+        <v>610806</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>664688</v>
+        <v>664194</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7235237801540573</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6921566278709229</v>
+        <v>0.6908449318922163</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7517883782914729</v>
+        <v>0.7512296690218514</v>
       </c>
     </row>
     <row r="11">
@@ -3010,19 +3010,19 @@
         <v>169714</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>148324</v>
+        <v>147465</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>193238</v>
+        <v>190866</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2705199949935895</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2364246385479507</v>
+        <v>0.2350556252068422</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.308016738104647</v>
+        <v>0.3042353015541627</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>71</v>
@@ -3031,19 +3031,19 @@
         <v>74730</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>61836</v>
+        <v>60471</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>88749</v>
+        <v>90813</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2910284630099376</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2408135738443274</v>
+        <v>0.2354971421171881</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3456243121249514</v>
+        <v>0.3536636166685763</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>231</v>
@@ -3052,19 +3052,19 @@
         <v>244445</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>219455</v>
+        <v>219949</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>272178</v>
+        <v>273337</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2764762198459427</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2482116217085271</v>
+        <v>0.2487703309781486</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3078433721290771</v>
+        <v>0.309155068107784</v>
       </c>
     </row>
     <row r="12">
@@ -3156,19 +3156,19 @@
         <v>837596</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>804725</v>
+        <v>807169</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>869287</v>
+        <v>869169</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.7270770540792612</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6985437910998533</v>
+        <v>0.7006650158805796</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.7545866170801241</v>
+        <v>0.7544839899620474</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>506</v>
@@ -3177,19 +3177,19 @@
         <v>543893</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>518331</v>
+        <v>518621</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>568998</v>
+        <v>572317</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.7094340598252377</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.676093000589883</v>
+        <v>0.6764705500727076</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7421800204502353</v>
+        <v>0.7465093651419553</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1289</v>
@@ -3198,19 +3198,19 @@
         <v>1381488</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1345400</v>
+        <v>1338936</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1419468</v>
+        <v>1421290</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.7200272779787072</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.7012181527145716</v>
+        <v>0.6978490293300088</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7398222471923029</v>
+        <v>0.7407717123330859</v>
       </c>
     </row>
     <row r="14">
@@ -3227,19 +3227,19 @@
         <v>314408</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>282717</v>
+        <v>282835</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>347279</v>
+        <v>344835</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2729229459207388</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2454133829198759</v>
+        <v>0.2455160100379527</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3014562089001468</v>
+        <v>0.2993349841194204</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>205</v>
@@ -3248,19 +3248,19 @@
         <v>222764</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>197659</v>
+        <v>194340</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>248326</v>
+        <v>248036</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2905659401747623</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2578199795497647</v>
+        <v>0.2534906348580443</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.323906999410117</v>
+        <v>0.3235294499272914</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>499</v>
@@ -3269,19 +3269,19 @@
         <v>537173</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>499193</v>
+        <v>497371</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>573261</v>
+        <v>579725</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2799727220212928</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2601777528076971</v>
+        <v>0.2592282876669141</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.298781847285428</v>
+        <v>0.3021509706699911</v>
       </c>
     </row>
     <row r="15">
@@ -3373,19 +3373,19 @@
         <v>364939</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>341039</v>
+        <v>345750</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>385709</v>
+        <v>383833</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7165669969434378</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6696385291787841</v>
+        <v>0.6788892160285473</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7573494400522178</v>
+        <v>0.7536657685812019</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>434</v>
@@ -3394,19 +3394,19 @@
         <v>472757</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>443799</v>
+        <v>441965</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>499298</v>
+        <v>499023</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6216064223312366</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.583531638903069</v>
+        <v>0.5811194966155087</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6565042595522345</v>
+        <v>0.656142655538629</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>782</v>
@@ -3415,19 +3415,19 @@
         <v>837696</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>800325</v>
+        <v>804155</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>870898</v>
+        <v>873085</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6596921234245954</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6302621917188558</v>
+        <v>0.6332785319267018</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6858391429505155</v>
+        <v>0.6875617087841945</v>
       </c>
     </row>
     <row r="17">
@@ -3444,19 +3444,19 @@
         <v>144349</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>123579</v>
+        <v>125455</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>168249</v>
+        <v>163538</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2834330030565622</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2426505599477822</v>
+        <v>0.2463342314187979</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3303614708212159</v>
+        <v>0.3211107839714525</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>268</v>
@@ -3465,19 +3465,19 @@
         <v>287783</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>261242</v>
+        <v>261517</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>316741</v>
+        <v>318575</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3783935776687634</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3434957404477658</v>
+        <v>0.343857344461371</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.416468361096931</v>
+        <v>0.4188805033844913</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>406</v>
@@ -3486,19 +3486,19 @@
         <v>432132</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>398930</v>
+        <v>396743</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>469503</v>
+        <v>465673</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3403078765754046</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3141608570494843</v>
+        <v>0.3124382912158055</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3697378082811442</v>
+        <v>0.3667214680732981</v>
       </c>
     </row>
     <row r="18">
@@ -3590,19 +3590,19 @@
         <v>220260</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>205727</v>
+        <v>206741</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>231243</v>
+        <v>231609</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.8282687005933763</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.7736181583736697</v>
+        <v>0.7774321238166847</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.8695714697540152</v>
+        <v>0.870944767803343</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>657</v>
@@ -3611,19 +3611,19 @@
         <v>697205</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>663311</v>
+        <v>664293</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>729505</v>
+        <v>730142</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.6313363247997411</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.6006449835884843</v>
+        <v>0.6015335184666691</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.6605849380988671</v>
+        <v>0.6611618088883819</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>877</v>
@@ -3632,19 +3632,19 @@
         <v>917465</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>878472</v>
+        <v>883502</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>949728</v>
+        <v>954982</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.6695551865784719</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.6410989369847401</v>
+        <v>0.6447695727398387</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.6931002654411274</v>
+        <v>0.6969352367326587</v>
       </c>
     </row>
     <row r="20">
@@ -3661,19 +3661,19 @@
         <v>45668</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>34685</v>
+        <v>34319</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>60201</v>
+        <v>59187</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1717312994066237</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1304285302459849</v>
+        <v>0.129055232196657</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2263818416263311</v>
+        <v>0.2225678761833154</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>382</v>
@@ -3682,19 +3682,19 @@
         <v>407127</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>374827</v>
+        <v>374190</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>441021</v>
+        <v>440039</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3686636752002589</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3394150619011328</v>
+        <v>0.3388381911116178</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3993550164115156</v>
+        <v>0.3984664815333307</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>426</v>
@@ -3703,19 +3703,19 @@
         <v>452795</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>420532</v>
+        <v>415278</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>491788</v>
+        <v>486758</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3304448134215281</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3068997345588728</v>
+        <v>0.3030647632673411</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.35890106301526</v>
+        <v>0.3552304272601614</v>
       </c>
     </row>
     <row r="21">
@@ -3807,19 +3807,19 @@
         <v>2525137</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2470212</v>
+        <v>2471974</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>2574730</v>
+        <v>2577836</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7405841719250623</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7244756355491205</v>
+        <v>0.7249922809279468</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7551291194765384</v>
+        <v>0.7560402503205947</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2214</v>
@@ -3828,19 +3828,19 @@
         <v>2390131</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2336710</v>
+        <v>2332807</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>2450800</v>
+        <v>2444063</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6750306779785079</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6599431793895235</v>
+        <v>0.6588410237900137</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6921650286280577</v>
+        <v>0.6902622952994385</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>4583</v>
@@ -3849,19 +3849,19 @@
         <v>4915268</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>4834270</v>
+        <v>4825927</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>4996070</v>
+        <v>4993866</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7071890969646614</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6955354210219392</v>
+        <v>0.6943351795782425</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7188145706707891</v>
+        <v>0.7184975822071072</v>
       </c>
     </row>
     <row r="23">
@@ -3878,19 +3878,19 @@
         <v>884518</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>834925</v>
+        <v>831819</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>939443</v>
+        <v>937681</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2594158280749377</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2448708805234616</v>
+        <v>0.2439597496794053</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2755243644508795</v>
+        <v>0.2750077190720532</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1067</v>
@@ -3899,19 +3899,19 @@
         <v>1150643</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1089974</v>
+        <v>1096711</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>1204064</v>
+        <v>1207967</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3249693220214921</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.3078349713719423</v>
+        <v>0.3097377047005616</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3400568206104765</v>
+        <v>0.3411589762099863</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1892</v>
@@ -3920,19 +3920,19 @@
         <v>2035161</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1954359</v>
+        <v>1956563</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>2116159</v>
+        <v>2124502</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2928109030353386</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2811854293292109</v>
+        <v>0.2815024177928931</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3044645789780607</v>
+        <v>0.3056648204217575</v>
       </c>
     </row>
     <row r="24">
@@ -4266,19 +4266,19 @@
         <v>336859</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>319025</v>
+        <v>317483</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>353336</v>
+        <v>353301</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7850497834511448</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7434886685025818</v>
+        <v>0.7398955248680725</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8234500898364903</v>
+        <v>0.8233689092360601</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>267</v>
@@ -4287,19 +4287,19 @@
         <v>277027</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>260390</v>
+        <v>260465</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>291211</v>
+        <v>291227</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7982222943278854</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7502856243302453</v>
+        <v>0.7504999816528835</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8390905938706014</v>
+        <v>0.8391384257523078</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>579</v>
@@ -4308,19 +4308,19 @@
         <v>613886</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>590102</v>
+        <v>588908</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>636197</v>
+        <v>636455</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7909398854809867</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7602970773153291</v>
+        <v>0.7587579634238796</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8196864429850191</v>
+        <v>0.8200182457171965</v>
       </c>
     </row>
     <row r="5">
@@ -4337,19 +4337,19 @@
         <v>92233</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>75756</v>
+        <v>75791</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>110067</v>
+        <v>111609</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2149502165488552</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1765499101635097</v>
+        <v>0.1766310907639401</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2565113314974183</v>
+        <v>0.2601044751319277</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>65</v>
@@ -4358,19 +4358,19 @@
         <v>70028</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>55844</v>
+        <v>55828</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>86665</v>
+        <v>86590</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2017777056721146</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1609094061293986</v>
+        <v>0.1608615742476924</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2497143756697548</v>
+        <v>0.2495000183471166</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>149</v>
@@ -4379,19 +4379,19 @@
         <v>162261</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>139950</v>
+        <v>139692</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>186045</v>
+        <v>187239</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2090601145190133</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1803135570149809</v>
+        <v>0.1799817542828037</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2397029226846708</v>
+        <v>0.2412420365761205</v>
       </c>
     </row>
     <row r="6">
@@ -4483,19 +4483,19 @@
         <v>278277</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>259096</v>
+        <v>258106</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>294210</v>
+        <v>293605</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.7394783426087118</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6885073787728672</v>
+        <v>0.6858779040401339</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.7818175257245424</v>
+        <v>0.7802101634404457</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>282</v>
@@ -4504,19 +4504,19 @@
         <v>297289</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>280605</v>
+        <v>280806</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>311758</v>
+        <v>312462</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.7985789488922566</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7537611114824855</v>
+        <v>0.7543010234009276</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8374433549384785</v>
+        <v>0.8393355043160203</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>547</v>
@@ -4525,19 +4525,19 @@
         <v>575566</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>549438</v>
+        <v>551172</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>598679</v>
+        <v>598856</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.7688690935163832</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.7339664792002685</v>
+        <v>0.7362826102399425</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7997447057893586</v>
+        <v>0.7999814040274716</v>
       </c>
     </row>
     <row r="8">
@@ -4554,19 +4554,19 @@
         <v>98038</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>82105</v>
+        <v>82710</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>117219</v>
+        <v>118209</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2605216573912882</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2181824742754576</v>
+        <v>0.2197898365595543</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3114926212271329</v>
+        <v>0.314122095959866</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>70</v>
@@ -4575,19 +4575,19 @@
         <v>74984</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>60515</v>
+        <v>59811</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>91668</v>
+        <v>91467</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2014210511077435</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1625566450615214</v>
+        <v>0.1606644956839796</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2462388885175144</v>
+        <v>0.2456989765990723</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>158</v>
@@ -4596,19 +4596,19 @@
         <v>173022</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>149909</v>
+        <v>149732</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>199150</v>
+        <v>197416</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2311309064836168</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2002552942106413</v>
+        <v>0.2000185959725283</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2660335207997314</v>
+        <v>0.2637173897600574</v>
       </c>
     </row>
     <row r="9">
@@ -4700,19 +4700,19 @@
         <v>390903</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>368610</v>
+        <v>370833</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>409038</v>
+        <v>410866</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7512635388653002</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7084194859715184</v>
+        <v>0.7126929569670045</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7861165040095851</v>
+        <v>0.7896306290508867</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>116</v>
@@ -4721,19 +4721,19 @@
         <v>123342</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>109830</v>
+        <v>110109</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>134085</v>
+        <v>134576</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7613909142057039</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6779814139023836</v>
+        <v>0.6796990025366223</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8277075478324151</v>
+        <v>0.8307356010301488</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>493</v>
@@ -4742,19 +4742,19 @@
         <v>514245</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>491910</v>
+        <v>493102</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>536145</v>
+        <v>536918</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7536679643072903</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7209340968339754</v>
+        <v>0.7226817465774733</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7857638751471375</v>
+        <v>0.7868972253666671</v>
       </c>
     </row>
     <row r="11">
@@ -4771,19 +4771,19 @@
         <v>129424</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>111289</v>
+        <v>109461</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>151717</v>
+        <v>149494</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2487364611346998</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2138834959904149</v>
+        <v>0.2103693709491133</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2915805140284816</v>
+        <v>0.2873070430329958</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>34</v>
@@ -4792,19 +4792,19 @@
         <v>38654</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>27911</v>
+        <v>27420</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>52166</v>
+        <v>51887</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2386090857942961</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.172292452167585</v>
+        <v>0.1692643989698512</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3220185860976162</v>
+        <v>0.3203009974633775</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>158</v>
@@ -4813,19 +4813,19 @@
         <v>168078</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>146178</v>
+        <v>145405</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>190413</v>
+        <v>189221</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2463320356927096</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2142361248528624</v>
+        <v>0.2131027746333329</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2790659031660246</v>
+        <v>0.2773182534225267</v>
       </c>
     </row>
     <row r="12">
@@ -4917,19 +4917,19 @@
         <v>866254</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>834830</v>
+        <v>838500</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>891414</v>
+        <v>893478</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.755570839897007</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.7281623434689016</v>
+        <v>0.7313636282021413</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.777516022268387</v>
+        <v>0.7793168330974406</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>571</v>
@@ -4938,19 +4938,19 @@
         <v>584041</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>557733</v>
+        <v>558773</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>609628</v>
+        <v>612178</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.7095287065236203</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.6775670557377287</v>
+        <v>0.678831427681271</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7406123756219931</v>
+        <v>0.74371109438553</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1398</v>
@@ -4959,19 +4959,19 @@
         <v>1450295</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1407667</v>
+        <v>1408687</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1487524</v>
+        <v>1489530</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.7363290841242831</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.7146861656753655</v>
+        <v>0.7152039986144613</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7552306323944069</v>
+        <v>0.7562491175340985</v>
       </c>
     </row>
     <row r="14">
@@ -4988,19 +4988,19 @@
         <v>280235</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>255075</v>
+        <v>253011</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>311659</v>
+        <v>307989</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.244429160102993</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.222483977731613</v>
+        <v>0.2206831669025594</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2718376565310985</v>
+        <v>0.2686363717978588</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>224</v>
@@ -5009,19 +5009,19 @@
         <v>239099</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>213512</v>
+        <v>210962</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>265407</v>
+        <v>264367</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2904712934763797</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2593876243780067</v>
+        <v>0.2562889056144701</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3224329442622713</v>
+        <v>0.321168572318729</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>497</v>
@@ -5030,19 +5030,19 @@
         <v>519334</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>482105</v>
+        <v>480099</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>561962</v>
+        <v>560942</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2636709158757169</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2447693676055931</v>
+        <v>0.2437508824659014</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2853138343246345</v>
+        <v>0.2847960013855386</v>
       </c>
     </row>
     <row r="15">
@@ -5134,19 +5134,19 @@
         <v>480861</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>457565</v>
+        <v>461361</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>500173</v>
+        <v>503569</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7760973724645914</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7384992999578811</v>
+        <v>0.7446248195161714</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8072665840694213</v>
+        <v>0.8127487155777079</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>485</v>
@@ -5155,19 +5155,19 @@
         <v>506667</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>480094</v>
+        <v>482177</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>532501</v>
+        <v>533253</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6883699818327703</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6522672857713829</v>
+        <v>0.6550975163968591</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7234685844657409</v>
+        <v>0.7244901501991049</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>947</v>
@@ -5176,19 +5176,19 @@
         <v>987527</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>953099</v>
+        <v>955328</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1021535</v>
+        <v>1021854</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.7284657026957635</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7030694812721546</v>
+        <v>0.7047138142741749</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.75355209391348</v>
+        <v>0.753787507394918</v>
       </c>
     </row>
     <row r="17">
@@ -5205,19 +5205,19 @@
         <v>138727</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>119415</v>
+        <v>116019</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>162023</v>
+        <v>158227</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2239026275354085</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1927334159305787</v>
+        <v>0.1872512844222921</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2615007000421189</v>
+        <v>0.2553751804838281</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>212</v>
@@ -5226,19 +5226,19 @@
         <v>229372</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>203538</v>
+        <v>202786</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>255945</v>
+        <v>253862</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3116300181672297</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.276531415534259</v>
+        <v>0.2755098498008952</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3477327142286171</v>
+        <v>0.3449024836031409</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>346</v>
@@ -5247,19 +5247,19 @@
         <v>368099</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>334091</v>
+        <v>333772</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>402527</v>
+        <v>400298</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2715342973042366</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.24644790608652</v>
+        <v>0.246212492605082</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2969305187278454</v>
+        <v>0.2952861857258252</v>
       </c>
     </row>
     <row r="18">
@@ -5351,19 +5351,19 @@
         <v>242500</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>228710</v>
+        <v>229142</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>253751</v>
+        <v>253958</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.8445227071947242</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.7964949469756977</v>
+        <v>0.7980013365928692</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.8837021029393675</v>
+        <v>0.8844243253052143</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>679</v>
@@ -5372,19 +5372,19 @@
         <v>726291</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>695078</v>
+        <v>693120</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>763809</v>
+        <v>757671</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.6746452772491938</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.6456518681866468</v>
+        <v>0.6438331342307138</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.709494714192905</v>
+        <v>0.7037937311739517</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>909</v>
@@ -5393,19 +5393,19 @@
         <v>968792</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>935026</v>
+        <v>931336</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>1001151</v>
+        <v>998539</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.7104152625270463</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.6856550218625954</v>
+        <v>0.682948897648616</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.7341441073379554</v>
+        <v>0.7322287727162182</v>
       </c>
     </row>
     <row r="20">
@@ -5422,19 +5422,19 @@
         <v>44645</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>33394</v>
+        <v>33187</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>58435</v>
+        <v>58003</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1554772928052758</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1162978970606326</v>
+        <v>0.1155756746947858</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2035050530243025</v>
+        <v>0.2019986634071308</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>308</v>
@@ -5443,19 +5443,19 @@
         <v>350262</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>312744</v>
+        <v>318882</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>381475</v>
+        <v>383433</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3253547227508062</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.290505285807095</v>
+        <v>0.2962062688260483</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.354348131813353</v>
+        <v>0.356166865769286</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>350</v>
@@ -5464,19 +5464,19 @@
         <v>394906</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>362547</v>
+        <v>365159</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>428672</v>
+        <v>432362</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2895847374729537</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2658558926620446</v>
+        <v>0.2677712272837817</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3143449781374045</v>
+        <v>0.317051102351384</v>
       </c>
     </row>
     <row r="21">
@@ -5568,19 +5568,19 @@
         <v>2595653</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2541832</v>
+        <v>2548711</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>2644610</v>
+        <v>2645357</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7681818982226654</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7522537343676908</v>
+        <v>0.7542896373719125</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7826706177599666</v>
+        <v>0.7828918050559416</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2400</v>
@@ -5589,19 +5589,19 @@
         <v>2514659</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2459002</v>
+        <v>2461272</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>2575611</v>
+        <v>2565817</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7149896765116472</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6991649775578347</v>
+        <v>0.6998102912325906</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.732320290651704</v>
+        <v>0.7295353787064853</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>4873</v>
@@ -5610,19 +5610,19 @@
         <v>5110312</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>5034632</v>
+        <v>5033105</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>5183072</v>
+        <v>5189367</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7410531707209287</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7300788308533822</v>
+        <v>0.7298573437702878</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7516043227724432</v>
+        <v>0.7525170434285097</v>
       </c>
     </row>
     <row r="23">
@@ -5639,19 +5639,19 @@
         <v>783303</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>734346</v>
+        <v>733599</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>837124</v>
+        <v>830245</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2318181017773346</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2173293822400335</v>
+        <v>0.2171081949440583</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2477462656323093</v>
+        <v>0.2457103626280874</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>913</v>
@@ -5660,19 +5660,19 @@
         <v>1002397</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>941445</v>
+        <v>951239</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>1058054</v>
+        <v>1055784</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2850103234883528</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2676797093482959</v>
+        <v>0.2704646212935147</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3008350224421651</v>
+        <v>0.3001897087674091</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1658</v>
@@ -5681,19 +5681,19 @@
         <v>1785700</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1712940</v>
+        <v>1706645</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1861380</v>
+        <v>1862907</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2589468292790713</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2483956772275568</v>
+        <v>0.2474829565714908</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2699211691466178</v>
+        <v>0.2701426562297122</v>
       </c>
     </row>
     <row r="24">
@@ -6027,19 +6027,19 @@
         <v>416727</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>395574</v>
+        <v>395293</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>434519</v>
+        <v>436181</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.7716044516135154</v>
+        <v>0.7716044516135155</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7324379480121159</v>
+        <v>0.7319164361432059</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8045477864776726</v>
+        <v>0.8076241741895818</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>479</v>
@@ -6048,19 +6048,19 @@
         <v>351128</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>333685</v>
+        <v>331927</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>366825</v>
+        <v>366490</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.7278946262453115</v>
+        <v>0.7278946262453114</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6917354728951803</v>
+        <v>0.688092235001203</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7604362398848459</v>
+        <v>0.7597418443106368</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>897</v>
@@ -6069,19 +6069,19 @@
         <v>767855</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>738616</v>
+        <v>740467</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>794113</v>
+        <v>793518</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.750982666234386</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7223857061715505</v>
+        <v>0.7241965260739948</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7766632237326369</v>
+        <v>0.7760819838149958</v>
       </c>
     </row>
     <row r="5">
@@ -6098,19 +6098,19 @@
         <v>123352</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>105560</v>
+        <v>103898</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>144505</v>
+        <v>144786</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2283955483864846</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1954522135223274</v>
+        <v>0.1923758258104183</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2675620519878843</v>
+        <v>0.268083563856794</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>198</v>
@@ -6119,19 +6119,19 @@
         <v>131260</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>115563</v>
+        <v>115898</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>148703</v>
+        <v>150461</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.2721053737546885</v>
+        <v>0.2721053737546884</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2395637601151542</v>
+        <v>0.2402581556893632</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3082645271048196</v>
+        <v>0.311907764998797</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>328</v>
@@ -6140,19 +6140,19 @@
         <v>254612</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>228354</v>
+        <v>228949</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>283851</v>
+        <v>282000</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.249017333765614</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.223336776267363</v>
+        <v>0.2239180161850043</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2776142938284493</v>
+        <v>0.2758034739260053</v>
       </c>
     </row>
     <row r="6">
@@ -6244,19 +6244,19 @@
         <v>369277</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>349771</v>
+        <v>350663</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>387576</v>
+        <v>387365</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.7747155841135613</v>
+        <v>0.7747155841135616</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.733794546571139</v>
+        <v>0.7356644127403696</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8131060932314863</v>
+        <v>0.8126627758527309</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>409</v>
@@ -6265,19 +6265,19 @@
         <v>300550</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>283826</v>
+        <v>283880</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>314750</v>
+        <v>316792</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.7241125733977556</v>
+        <v>0.7241125733977555</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6838181452380325</v>
+        <v>0.6839486315066838</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7583244144233633</v>
+        <v>0.7632427274987267</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>767</v>
@@ -6286,19 +6286,19 @@
         <v>669828</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>647456</v>
+        <v>643772</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>691787</v>
+        <v>692041</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.751161922162474</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.7260736199144514</v>
+        <v>0.721942595683165</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7757881643723982</v>
+        <v>0.7760723068019423</v>
       </c>
     </row>
     <row r="8">
@@ -6315,19 +6315,19 @@
         <v>107384</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>89085</v>
+        <v>89296</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>126890</v>
+        <v>125998</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2252844158864385</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1868939067685138</v>
+        <v>0.187337224147269</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2662054534288609</v>
+        <v>0.2643355872596302</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>172</v>
@@ -6336,19 +6336,19 @@
         <v>114510</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>100310</v>
+        <v>98268</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>131234</v>
+        <v>131180</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2758874266022444</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2416755855766367</v>
+        <v>0.2367572725012733</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3161818547619672</v>
+        <v>0.3160513684933163</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>290</v>
@@ -6357,19 +6357,19 @@
         <v>221894</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>199935</v>
+        <v>199681</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>244266</v>
+        <v>247950</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2488380778375259</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2242118356276017</v>
+        <v>0.2239276931980577</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2739263800855485</v>
+        <v>0.278057404316835</v>
       </c>
     </row>
     <row r="9">
@@ -6461,19 +6461,19 @@
         <v>312369</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>286809</v>
+        <v>290093</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>330387</v>
+        <v>333837</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.6760446916683712</v>
+        <v>0.6760446916683711</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6207262575471476</v>
+        <v>0.6278335118338407</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7150403416967024</v>
+        <v>0.722506683967569</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>192</v>
@@ -6482,19 +6482,19 @@
         <v>129708</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>120167</v>
+        <v>118284</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>139368</v>
+        <v>139329</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.7104427531001183</v>
+        <v>0.7104427531001182</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6581850814965232</v>
+        <v>0.6478704826431033</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7633527361600229</v>
+        <v>0.7631386784272552</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>510</v>
@@ -6503,19 +6503,19 @@
         <v>442077</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>419247</v>
+        <v>419320</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>464886</v>
+        <v>464784</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.6857870082184225</v>
+        <v>0.6857870082184226</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6503707412895258</v>
+        <v>0.6504848928438598</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7211702119467718</v>
+        <v>0.721012331518874</v>
       </c>
     </row>
     <row r="11">
@@ -6532,19 +6532,19 @@
         <v>149685</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>131667</v>
+        <v>128217</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>175245</v>
+        <v>171961</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.3239553083316289</v>
+        <v>0.3239553083316288</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2849596583032977</v>
+        <v>0.2774933160324309</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3792737424528526</v>
+        <v>0.3721664881661592</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>90</v>
@@ -6553,19 +6553,19 @@
         <v>52865</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>43205</v>
+        <v>43244</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>62406</v>
+        <v>64289</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.289557246899882</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2366472638399772</v>
+        <v>0.2368613215727448</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3418149185034767</v>
+        <v>0.3521295173568966</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>252</v>
@@ -6574,19 +6574,19 @@
         <v>202550</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>179741</v>
+        <v>179843</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>225380</v>
+        <v>225307</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.3142129917815774</v>
+        <v>0.3142129917815773</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2788297880532288</v>
+        <v>0.2789876684811258</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3496292587104747</v>
+        <v>0.34951510715614</v>
       </c>
     </row>
     <row r="12">
@@ -6678,19 +6678,19 @@
         <v>802647</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>772291</v>
+        <v>773157</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>830281</v>
+        <v>830273</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.7438793316195603</v>
+        <v>0.7438793316195602</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.7157464559045161</v>
+        <v>0.7165487346283625</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.7694908015230926</v>
+        <v>0.7694829173703259</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>751</v>
@@ -6699,19 +6699,19 @@
         <v>551358</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>527014</v>
+        <v>529157</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>572918</v>
+        <v>576508</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.6589976866181849</v>
+        <v>0.658997686618185</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.6299020230711235</v>
+        <v>0.6324631181703694</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6847672657439551</v>
+        <v>0.6890582829915927</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1518</v>
@@ -6720,19 +6720,19 @@
         <v>1354004</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1315605</v>
+        <v>1317679</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1389500</v>
+        <v>1393926</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.7068074611142575</v>
+        <v>0.7068074611142574</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.6867627215027053</v>
+        <v>0.6878452114371948</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7253366518674413</v>
+        <v>0.7276472350019443</v>
       </c>
     </row>
     <row r="14">
@@ -6749,19 +6749,19 @@
         <v>276354</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>248720</v>
+        <v>248728</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>306710</v>
+        <v>305844</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2561206683804397</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2305091984769074</v>
+        <v>0.2305170826296744</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2842535440954839</v>
+        <v>0.2834512653716375</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>446</v>
@@ -6770,19 +6770,19 @@
         <v>285303</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>263743</v>
+        <v>260153</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>309647</v>
+        <v>307504</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.341002313381815</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.315232734256045</v>
+        <v>0.3109417170084073</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3700979769288765</v>
+        <v>0.3675368818296305</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>763</v>
@@ -6791,19 +6791,19 @@
         <v>561658</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>526162</v>
+        <v>521736</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>600057</v>
+        <v>597983</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.2931925388857427</v>
+        <v>0.2931925388857426</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2746633481325588</v>
+        <v>0.2723527649980557</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3132372784972945</v>
+        <v>0.3121547885628052</v>
       </c>
     </row>
     <row r="15">
@@ -6895,19 +6895,19 @@
         <v>408072</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>384938</v>
+        <v>386288</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>427850</v>
+        <v>427369</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.7450993555750339</v>
+        <v>0.7450993555750338</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7028597832087132</v>
+        <v>0.7053242880649292</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7812130529673807</v>
+        <v>0.7803354183510934</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>781</v>
@@ -6916,19 +6916,19 @@
         <v>525564</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>503103</v>
+        <v>501000</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>547809</v>
+        <v>548111</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6586265887921213</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6304788338482246</v>
+        <v>0.6278438664518579</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6865035586702327</v>
+        <v>0.6868822477800146</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1169</v>
@@ -6937,19 +6937,19 @@
         <v>933635</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>901438</v>
+        <v>900803</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>962706</v>
+        <v>961677</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.6938208481919805</v>
+        <v>0.6938208481919804</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6698939396888861</v>
+        <v>0.6694218697734509</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7154247052670851</v>
+        <v>0.7146601663288117</v>
       </c>
     </row>
     <row r="17">
@@ -6966,19 +6966,19 @@
         <v>139602</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>119824</v>
+        <v>120305</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>162736</v>
+        <v>161386</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.2549006444249662</v>
+        <v>0.2549006444249661</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2187869470326194</v>
+        <v>0.2196645816489067</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.297140216791287</v>
+        <v>0.2946757119350709</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>461</v>
@@ -6987,19 +6987,19 @@
         <v>272405</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>250160</v>
+        <v>249858</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>294866</v>
+        <v>296969</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3413734112078787</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3134964413297672</v>
+        <v>0.3131177522199853</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3695211661517754</v>
+        <v>0.3721561335481422</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>604</v>
@@ -7008,19 +7008,19 @@
         <v>412008</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>382937</v>
+        <v>383966</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>444205</v>
+        <v>444840</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3061791518080194</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2845752947329151</v>
+        <v>0.285339833671188</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3301060603111139</v>
+        <v>0.330578130226549</v>
       </c>
     </row>
     <row r="18">
@@ -7112,19 +7112,19 @@
         <v>210039</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>190432</v>
+        <v>193964</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>221628</v>
+        <v>222333</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.8990710771734056</v>
+        <v>0.8990710771734055</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.8151436409564937</v>
+        <v>0.8302599359197343</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.9486771197319381</v>
+        <v>0.951696607256643</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>742</v>
@@ -7133,19 +7133,19 @@
         <v>587208</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>564874</v>
+        <v>563168</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>610027</v>
+        <v>610855</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.7218877521168294</v>
+        <v>0.7218877521168292</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.694430973295493</v>
+        <v>0.6923340105070768</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.749940219276874</v>
+        <v>0.7509579387891653</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>839</v>
@@ -7154,19 +7154,19 @@
         <v>797247</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>769271</v>
+        <v>765829</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>822868</v>
+        <v>825141</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.7614208575392872</v>
+        <v>0.7614208575392871</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.7347017567852016</v>
+        <v>0.7314149066066132</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.7858905617547107</v>
+        <v>0.7880607769282169</v>
       </c>
     </row>
     <row r="20">
@@ -7183,19 +7183,19 @@
         <v>23579</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>11990</v>
+        <v>11285</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>43186</v>
+        <v>39654</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1009289228265945</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.05132288026806186</v>
+        <v>0.04830339274335705</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1848563590435058</v>
+        <v>0.1697400640802656</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>373</v>
@@ -7204,19 +7204,19 @@
         <v>226226</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>203407</v>
+        <v>202579</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>248560</v>
+        <v>250266</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2781122478831707</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2500597807231257</v>
+        <v>0.2490420612108348</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3055690267045069</v>
+        <v>0.3076659894929238</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>387</v>
@@ -7225,19 +7225,19 @@
         <v>249805</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>224184</v>
+        <v>221911</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>277781</v>
+        <v>281223</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.2385791424607129</v>
+        <v>0.2385791424607128</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2141094382452892</v>
+        <v>0.2119392230717832</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2652982432147984</v>
+        <v>0.2685850933933868</v>
       </c>
     </row>
     <row r="21">
@@ -7329,19 +7329,19 @@
         <v>2519131</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2465950</v>
+        <v>2466957</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>2570894</v>
+        <v>2573060</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7544369204255854</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7385103802147803</v>
+        <v>0.738811791732861</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7699392899890297</v>
+        <v>0.7705878507604988</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>3354</v>
@@ -7350,19 +7350,19 @@
         <v>2445515</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2396347</v>
+        <v>2395720</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>2493151</v>
+        <v>2491842</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.6931564254346304</v>
+        <v>0.6931564254346303</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6792203514758895</v>
+        <v>0.6790425907888671</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7066583893457004</v>
+        <v>0.7062872873476249</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>5700</v>
@@ -7371,19 +7371,19 @@
         <v>4964645</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>4888138</v>
+        <v>4894498</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>5038742</v>
+        <v>5034089</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.7229533923115414</v>
+        <v>0.7229533923115412</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7118123915357422</v>
+        <v>0.7127384818581555</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7337433559585954</v>
+        <v>0.7330657484412849</v>
       </c>
     </row>
     <row r="23">
@@ -7400,19 +7400,19 @@
         <v>819956</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>768193</v>
+        <v>766027</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>873137</v>
+        <v>872130</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2455630795744145</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2300607100109702</v>
+        <v>0.2294121492395011</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2614896197852198</v>
+        <v>0.2611882082671391</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1740</v>
@@ -7421,19 +7421,19 @@
         <v>1082570</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1034934</v>
+        <v>1036243</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>1131738</v>
+        <v>1132365</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3068435745653696</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2933416106542997</v>
+        <v>0.2937127126523753</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3207796485241103</v>
+        <v>0.320957409211133</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>2624</v>
@@ -7442,19 +7442,19 @@
         <v>1902527</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1828430</v>
+        <v>1833083</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1979034</v>
+        <v>1972674</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2770466076884587</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2662566440414044</v>
+        <v>0.266934251558715</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2881876084642574</v>
+        <v>0.2872615181418443</v>
       </c>
     </row>
     <row r="24">
